--- a/Ch-7_Practice_RealData/02_Pre-Processing/clinical_trials.xlsx
+++ b/Ch-7_Practice_RealData/02_Pre-Processing/clinical_trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python\PY_PANDAS\Ch-7_Practice_RealData\02_Pre-Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341F8BA-3B8C-4D82-9712-86E9825E8915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526BBEC9-8CE3-4201-9C73-EA81F254023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patients" sheetId="1" r:id="rId1"/>
@@ -42127,8 +42127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43910,7 +43910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
